--- a/public/templates/assay.xlsx
+++ b/public/templates/assay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Silvan\code\elimu-v2\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41512642-09D4-472A-846B-3C01586C8D7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3C018F-3236-4ACA-A901-DCCA9ECF90A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{1CFC8618-4AC8-42F2-B049-8843A122C521}"/>
   </bookViews>
@@ -25,24 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Cutoff</t>
-  </si>
-  <si>
-    <t>Cutoff Standard deviation</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>Required repetitions</t>
-  </si>
-  <si>
-    <t>Target</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>cutoff</t>
+  </si>
+  <si>
+    <t>cutoff_standard_deviation</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>required_repetitions</t>
+  </si>
+  <si>
+    <t>positive_control</t>
+  </si>
+  <si>
+    <t>negative_control</t>
+  </si>
+  <si>
+    <t>ntc_control</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F5482B-6BC0-4721-93AA-C7FE6064A98A}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,29 +418,40 @@
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>